--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1697647.045557209</v>
+        <v>1759660.359779042</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17281035.08926389</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6203170.816980448</v>
+        <v>6208011.149751124</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>370.3311127131759</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>366.1332104694727</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>83.12810001822743</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>53.93945200553801</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>337.0311136373214</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.1953825260219</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.455711578837</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>114.8528499950181</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>189.9567218328161</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>101.4556968337268</v>
+        <v>236.5068966114155</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>250.8062115987913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>30.11288841831389</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>386.0027999845</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>173.7950029088911</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>161.0723471410681</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.2534186025703</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2005,22 +2005,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>109.1426757626851</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.139541480022672</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>270.5001522192753</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>187.0595157663138</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,7 +2530,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>219.2875345484105</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2539,10 +2539,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.9254647561323</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247628</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,10 +2962,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3004,10 +3004,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436915</v>
+        <v>191.0148624863773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225839</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>221.1652862082619</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056498</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3806,7 +3806,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>219.4201062858536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>67.84972440587322</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208235</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.550686977299</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>33.08339867820433</v>
       </c>
       <c r="T44" t="n">
-        <v>33.08339867820516</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225734</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,10 +4198,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>81.01098805494587</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.854954171005</v>
+        <v>911.8702802447502</v>
       </c>
       <c r="C2" t="n">
-        <v>778.7528853948324</v>
+        <v>877.7682114685776</v>
       </c>
       <c r="D2" t="n">
-        <v>746.883504609681</v>
+        <v>503.6963804451676</v>
       </c>
       <c r="E2" t="n">
-        <v>717.1491638083803</v>
+        <v>69.92163560346279</v>
       </c>
       <c r="F2" t="n">
-        <v>693.3221382579922</v>
+        <v>46.09461005307459</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>46.09461005307459</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.09461005307459</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>610.9408515978701</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>610.9408515978701</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1176.203882515526</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299078</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257673</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.89103401073</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194566</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1980.171933067605</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1720.949630384622</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1358.332680318448</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>1357.517629769886</v>
       </c>
       <c r="X2" t="n">
-        <v>839.3598402754513</v>
+        <v>938.3751663491965</v>
       </c>
       <c r="Y2" t="n">
-        <v>835.1141206155088</v>
+        <v>934.129446689254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715074</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081497</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.302815654703</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816567</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978183</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400213</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>485.7428345149528</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159024</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607407</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937977</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331699</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720498</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512706</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>1068.80158477866</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>896.2398732618848</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>730.3618804634075</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>560.6038767141447</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>383.8968226759009</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>218.3055477017286</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.3377699055393</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021459</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>132.2575058449044</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>407.01596041604</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>825.2258421840011</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1284.709709364914</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1726.968512522559</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1936.384140040388</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.89103401073</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.89103401073</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2283.89103401073</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2283.89103401073</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2283.89103401073</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>2005.458033263835</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>2005.458033263835</v>
       </c>
       <c r="W4" t="n">
-        <v>1270.644793662241</v>
+        <v>1733.431628850126</v>
       </c>
       <c r="X4" t="n">
-        <v>1216.160498707152</v>
+        <v>1488.039874183539</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>1260.620203497647</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.6683834787607</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>423.987815023316</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y5" t="n">
-        <v>1370.967953963669</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.1384727187784</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9570914377655</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.2516073614567</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>120.1495385852841</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>88.28015780013266</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>58.5458169988319</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>277.850375145656</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>707.4954193201465</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1137.140463494637</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1566.785507669128</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1735.939572422184</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1735.939572422184</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1735.939572422184</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1476.717269739201</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1114.100319673028</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>709.2448650840608</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>290.1024016633716</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5107738059604</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.8905364397365</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>434.4340752763787</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>339.343786422932</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>245.2233717498857</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.8395333660473</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>76.45444363223122</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>34.71879144844369</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>34.71879144844369</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>34.71879144844369</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>34.71879144844369</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>34.71879144844369</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N9" t="n">
-        <v>291.8506423094412</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O9" t="n">
-        <v>721.4956864839318</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1151.140730658422</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.785774832913</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.958552927253</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1634.503115375636</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1504.324471706237</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.987924706206</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.870406768205</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>943.5476525013989</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>788.6802167402789</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>662.1944375194996</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.71879144844369</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>34.71879144844369</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D10" t="n">
-        <v>34.71879144844369</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E10" t="n">
-        <v>34.71879144844369</v>
+        <v>511.7125253339923</v>
       </c>
       <c r="F10" t="n">
-        <v>34.71879144844369</v>
+        <v>335.0054712957485</v>
       </c>
       <c r="G10" t="n">
-        <v>34.71879144844369</v>
+        <v>169.4141963215762</v>
       </c>
       <c r="H10" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>34.71879144844369</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>38.7703530794606</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>38.7703530794606</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>456.9802348474216</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>886.6252790219122</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1316.270323196403</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1735.939572422184</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1735.939572422184</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1735.939572422184</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1714.521751127556</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1555.280382425553</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1309.400936004008</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1030.967935257113</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>744.0124271275438</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>471.9860227138353</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>226.5942680472478</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>34.71879144844369</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.30874198473</v>
+        <v>2472.724095295527</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168154</v>
+        <v>2034.58162247895</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342598</v>
+        <v>1598.671837653395</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500893</v>
+        <v>1164.89709281169</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099101009</v>
+        <v>737.0296632208974</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2164785333645</v>
+        <v>335.6318318441608</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>199.0316880464614</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>199.0316880464614</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>1356.079523257012</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263765</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097161</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928797</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245814</v>
+        <v>4493.92465755661</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.89235417964</v>
+        <v>4131.307707490437</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590674</v>
+        <v>3726.45225290147</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169985</v>
+        <v>3307.309789480781</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469638</v>
+        <v>2899.023665780434</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,25 +5112,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O12" t="n">
         <v>282.3408549543107</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>999.0870832547528</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="C13" t="n">
-        <v>826.5253717379777</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>660.6473789395004</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>490.8893751902377</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>490.8893751902376</v>
       </c>
       <c r="G13" t="n">
         <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415475</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1935.743531739928</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1663.717127326219</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1418.325372659632</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1190.90570197374</v>
+        <v>1195.051044495209</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.87917085155</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2073.736698034973</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.826913209418</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.052168367713</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>776.1847387769205</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
@@ -5282,46 +5282,46 @@
         <v>96.73597668111518</v>
       </c>
       <c r="L14" t="n">
-        <v>745.5304740050589</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M14" t="n">
-        <v>1902.57830921561</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N14" t="n">
-        <v>3028.309292652057</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>4008.488959222363</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457494</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036805</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336458</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>282.3408549543107</v>
       </c>
       <c r="O15" t="n">
         <v>282.3408549543107</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.0533615061025</v>
+        <v>921.5429130934996</v>
       </c>
       <c r="C16" t="n">
-        <v>771.4916499893275</v>
+        <v>748.9812015767245</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>583.1032087782472</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>413.3452050289844</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>236.6381509907406</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>236.6381509907406</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111518</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2691.977765289286</v>
+        <v>2669.467316876683</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.098318867741</v>
+        <v>2423.587870455138</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.665318120847</v>
+        <v>2145.154869708243</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.709809991277</v>
+        <v>1858.199361578674</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.683405577569</v>
+        <v>1586.172957164966</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.291650910981</v>
+        <v>1340.781202498378</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.87198022509</v>
+        <v>1113.361531812487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K17" t="n">
-        <v>199.0316880464641</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L17" t="n">
-        <v>199.0316880464641</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1356.079523257015</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245814</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.89235417964</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590674</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169985</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469638</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.8119928040994</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="C19" t="n">
-        <v>612.2502812873244</v>
+        <v>617.7751448769884</v>
       </c>
       <c r="D19" t="n">
-        <v>502.0051542543091</v>
+        <v>451.8971520785111</v>
       </c>
       <c r="E19" t="n">
-        <v>502.0051542543091</v>
+        <v>282.1391483292484</v>
       </c>
       <c r="F19" t="n">
-        <v>325.2981002160653</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418844</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1449.442036875566</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.050282208978</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>976.6306115230866</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.416826573035</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5941,19 +5941,19 @@
         <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>2265.02878318778</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V22" t="n">
-        <v>1978.073275058211</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W22" t="n">
-        <v>1706.046870644502</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.655115977915</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1233.235445292023</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181458</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6157,7 +6157,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2313.799635050031</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V25" t="n">
-        <v>2026.844126920461</v>
+        <v>1783.923745475923</v>
       </c>
       <c r="W25" t="n">
-        <v>1754.817722506753</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X25" t="n">
-        <v>1509.425967840165</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702765</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674088</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E31" t="n">
-        <v>673.121292818146</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954128</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601649</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="32">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6862,7 +6862,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M34" t="n">
         <v>1341.292728955479</v>
@@ -6871,16 +6871,16 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
         <v>2700.681281130895</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>832.0502353276422</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7105,7 +7105,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
         <v>2203.220781338905</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="38">
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>475.2748675296863</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740237</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771602</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004241</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>475.2748675296863</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K41" t="n">
-        <v>475.2748675296863</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L41" t="n">
-        <v>475.2748675296863</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.322702740237</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176684</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3590.036899590673</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3170.894436169984</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1077.292364523334</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674087</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2399.406093907741</v>
       </c>
       <c r="V43" t="n">
-        <v>2013.948813008508</v>
+        <v>2112.450585778172</v>
       </c>
       <c r="W43" t="n">
-        <v>1741.922408594799</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X43" t="n">
-        <v>1496.530653928213</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y43" t="n">
-        <v>1269.110983242321</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F44" t="n">
         <v>787.263962614635</v>
@@ -7655,40 +7655,40 @@
         <v>96.73597668111519</v>
       </c>
       <c r="M44" t="n">
-        <v>1186.925458503959</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940406</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510713</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344109</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302703</v>
+        <v>4734.50312269041</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.38125963333</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950347</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884173</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W44" t="n">
         <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y44" t="n">
         <v>2949.257965174172</v>
@@ -7722,25 +7722,25 @@
         <v>96.73597668111519</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111519</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>96.73597668111519</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
         <v>1102.064021433509</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I46" t="n">
         <v>96.73597668111519</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X46" t="n">
-        <v>1367.612756011984</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>395.9942432157095</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>444.5101149845841</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,13 +8143,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>117.6925219988882</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>211.5309368866963</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>245.5874582800125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>433.9848931055461</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>433.984893105546</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>433.984893105546</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>259.7291422838359</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>433.9848931055461</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>433.984893105546</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.984893105546</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.092486495976679</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>433.9848931055461</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.984893105546</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>103.3290013791377</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>655.3479770948926</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8945,10 +8945,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K17" t="n">
-        <v>103.3290013791403</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>376.7818457160674</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10841,7 +10841,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>376.7818457160674</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1101.201496790752</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>103.3290013791411</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>184.7831561774891</v>
+        <v>49.73195639980037</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>33.27974144948251</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>195.0325855607189</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11.38105307846877</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.1957776566206</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.146865729424434</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>55.07653710780744</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>5.148518520150473</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>55.87832135360782</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>56.36113619101519</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.22000922290052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>227.3655273957976</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957342</v>
+        <v>84.63380825304839</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627249</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>54.48338453116384</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>184.7831561774894</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>102.9863699957341</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>49.73195639979703</v>
       </c>
       <c r="T44" t="n">
-        <v>184.7831561774866</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>518161.9954209683</v>
+        <v>540029.0237407861</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540029.0237407861</v>
+        <v>540029.023740786</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540029.0237407861</v>
+        <v>518161.9954209683</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518161.9954209686</v>
+        <v>518161.9954209685</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>388706.8069205462</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>366504.8260294654</v>
+        <v>366504.8260294653</v>
       </c>
       <c r="F2" t="n">
-        <v>366504.8260294655</v>
+        <v>366504.8260294653</v>
       </c>
       <c r="G2" t="n">
-        <v>366504.8260294655</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995804</v>
@@ -26338,10 +26338,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
@@ -26350,7 +26350,7 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>381971.7484995802</v>
+        <v>366504.8260294654</v>
       </c>
       <c r="P2" t="n">
         <v>366504.8260294655</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476944</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745815</v>
       </c>
       <c r="D3" t="n">
-        <v>3009.705123905766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>231462.0891550074</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>18633.22400329715</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256758</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393257</v>
       </c>
       <c r="L3" t="n">
-        <v>2452.207705355034</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>193186.6328590333</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>135599.3120662805</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>166950.6403957108</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687729</v>
       </c>
       <c r="F4" t="n">
         <v>773.6821211687733</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687732</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26454,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826023</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687734</v>
+        <v>773.6821211688143</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696309</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>60013.8815008172</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
@@ -26503,10 +26503,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764753</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17922.62485385413</v>
+        <v>-6581.352610391841</v>
       </c>
       <c r="C6" t="n">
-        <v>160113.925513564</v>
+        <v>169799.8412030796</v>
       </c>
       <c r="D6" t="n">
-        <v>158732.5799001124</v>
+        <v>200989.8761405378</v>
       </c>
       <c r="E6" t="n">
-        <v>60749.71247564178</v>
+        <v>130400.167865738</v>
       </c>
       <c r="F6" t="n">
-        <v>292211.8016306492</v>
+        <v>292135.2430758522</v>
       </c>
       <c r="G6" t="n">
-        <v>292211.8016306493</v>
+        <v>284495.4252014579</v>
       </c>
       <c r="H6" t="n">
-        <v>284813.9534997081</v>
+        <v>303423.9531636226</v>
       </c>
       <c r="I6" t="n">
-        <v>303447.1775030053</v>
+        <v>303423.9531636226</v>
       </c>
       <c r="J6" t="n">
-        <v>192432.7121580151</v>
+        <v>154032.3567379468</v>
       </c>
       <c r="K6" t="n">
-        <v>303447.1775030052</v>
+        <v>278577.0163796901</v>
       </c>
       <c r="L6" t="n">
-        <v>300994.9697976504</v>
+        <v>303423.9531636226</v>
       </c>
       <c r="M6" t="n">
-        <v>110260.544643972</v>
+        <v>168434.0085506194</v>
       </c>
       <c r="N6" t="n">
-        <v>303447.1775030053</v>
+        <v>303423.9531636226</v>
       </c>
       <c r="O6" t="n">
-        <v>303447.1775030051</v>
+        <v>292135.2430758522</v>
       </c>
       <c r="P6" t="n">
-        <v>292211.8016306492</v>
+        <v>292135.2430758523</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>433.9848931055461</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517457</v>
       </c>
       <c r="D4" t="n">
-        <v>9.689035585441735</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>775.2148154083935</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>69.06079487080547</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517457</v>
       </c>
       <c r="L4" t="n">
-        <v>9.689035585441735</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083935</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517457</v>
       </c>
       <c r="L4" t="n">
-        <v>9.689035585441735</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083935</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>69.06079487080547</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,19 +27382,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>61.21957426412399</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>31.25064259349608</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>55.3750525483018</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>188.9983851143836</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>97.00787993732121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>3.32966510043002</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>291.7475508845061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>23.65030257151109</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.18875214621673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>395.9942432157095</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>444.5101149845841</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026824</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34863,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>117.6925219988882</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>211.5309368866963</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>245.5874582800125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>433.9848931055461</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>433.984893105546</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>433.984893105546</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>259.7291422838359</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>433.9848931055461</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>433.984893105546</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.984893105546</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.092486495976679</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>433.9848931055461</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.984893105546</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>103.3290013791377</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,10 +35650,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>655.3479770948926</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35665,10 +35665,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K17" t="n">
-        <v>103.3290013791403</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36519,22 +36519,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37230,13 +37230,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956015</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>376.7818457160674</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37561,7 +37561,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>376.7818457160674</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>103.3290013791402</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37944,7 +37944,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38023,7 +38023,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1101.201496790752</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>103.3290013791411</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
